--- a/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-2ndRepayment.xlsx
+++ b/Finflux Automation Excels/Client/5041-CompondingPenalityCharge-MakeRepayment-2ndRepayment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>clickonmakerepayment</t>
   </si>
@@ -180,13 +180,10 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$2.43</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$50.08</t>
+    <t>$51.73</t>
   </si>
 </sst>
 </file>
@@ -678,7 +675,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,22 +705,22 @@
         <v>5000</v>
       </c>
       <c r="B2" s="8">
-        <v>1390.3</v>
+        <v>1392.73</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9">
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>3609.7</v>
+        <v>3607.27</v>
       </c>
       <c r="F2" s="8">
-        <v>2882.64</v>
+        <v>2880.21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>238.95</v>
+        <v>238.78</v>
       </c>
       <c r="B3" s="9">
         <v>94.99</v>
@@ -735,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="9">
-        <v>143.96</v>
+        <v>143.79</v>
       </c>
       <c r="F3" s="9">
         <v>70.67</v>
@@ -763,10 +760,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>54.94</v>
+        <v>51.73</v>
       </c>
       <c r="B5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -775,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="9">
-        <v>52.51</v>
+        <v>51.73</v>
       </c>
       <c r="F5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -877,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -969,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="G8" s="9">
-        <v>784.54</v>
+        <v>786.19</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +982,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="9">
         <v>600</v>
@@ -1154,11 +1151,11 @@
         <v>0</v>
       </c>
       <c r="O4" s="9">
-        <v>597.57000000000005</v>
+        <v>600</v>
       </c>
       <c r="P4" s="9"/>
       <c r="Q4" s="9">
-        <v>290.14999999999998</v>
+        <v>287.72000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1174,22 +1171,22 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9">
-        <v>848.97</v>
+        <v>848.99</v>
       </c>
       <c r="G5" s="8">
-        <v>2470.58</v>
+        <v>2470.56</v>
       </c>
       <c r="H5" s="9">
-        <v>38.75</v>
+        <v>38.729999999999997</v>
       </c>
       <c r="I5" s="9">
         <v>0</v>
       </c>
       <c r="J5" s="9">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
@@ -1203,7 +1200,7 @@
       </c>
       <c r="P5" s="9"/>
       <c r="Q5" s="9">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1219,13 +1216,13 @@
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9">
-        <v>850.51</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1620.07</v>
+        <v>850.56</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1620</v>
       </c>
       <c r="H6" s="9">
-        <v>37.21</v>
+        <v>37.159999999999997</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -1264,13 +1261,13 @@
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9">
-        <v>853.77</v>
+        <v>853.82</v>
       </c>
       <c r="G7" s="9">
-        <v>766.3</v>
+        <v>766.18</v>
       </c>
       <c r="H7" s="9">
-        <v>33.950000000000003</v>
+        <v>33.9</v>
       </c>
       <c r="I7" s="9">
         <v>0</v>
@@ -1309,22 +1306,22 @@
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9">
-        <v>766.3</v>
+        <v>766.18</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
       <c r="H8" s="9">
-        <v>34.049999999999997</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9">
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>50.08</v>
+        <v>51.73</v>
       </c>
       <c r="K8" s="9">
-        <v>850.43</v>
+        <v>851.91</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
@@ -1338,7 +1335,7 @@
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9">
-        <v>850.43</v>
+        <v>851.91</v>
       </c>
     </row>
   </sheetData>
@@ -1350,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,7 +1390,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
-        <v>981</v>
+        <v>227</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>36</v>
@@ -1405,19 +1402,19 @@
         <v>37</v>
       </c>
       <c r="E2" s="9">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="8">
-        <v>3755.04</v>
+        <v>3750.01</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
-        <v>980</v>
+        <v>226</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>36</v>
@@ -1429,7 +1426,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="9">
-        <v>37.89</v>
+        <v>37.83</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1441,7 +1438,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
-        <v>979</v>
+        <v>225</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>36</v>
@@ -1453,19 +1450,19 @@
         <v>37</v>
       </c>
       <c r="E4" s="9">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="8">
-        <v>3717.15</v>
+        <v>3712.18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
-        <v>978</v>
+        <v>224</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>36</v>
@@ -1477,7 +1474,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="9">
-        <v>33.9</v>
+        <v>33.86</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1489,7 +1486,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
-        <v>977</v>
+        <v>223</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>36</v>
@@ -1501,19 +1498,19 @@
         <v>37</v>
       </c>
       <c r="E6" s="9">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="8">
-        <v>3683.25</v>
+        <v>3678.32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
-        <v>976</v>
+        <v>222</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>36</v>
@@ -1525,7 +1522,7 @@
         <v>38</v>
       </c>
       <c r="E7" s="9">
-        <v>37.159999999999997</v>
+        <v>37.11</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1537,7 +1534,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
-        <v>975</v>
+        <v>221</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
@@ -1549,19 +1546,19 @@
         <v>37</v>
       </c>
       <c r="E8" s="9">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="8">
-        <v>3646.09</v>
+        <v>3641.21</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
-        <v>974</v>
+        <v>220</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>36</v>
@@ -1573,7 +1570,7 @@
         <v>38</v>
       </c>
       <c r="E9" s="9">
-        <v>41.92</v>
+        <v>39.47</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <v>973</v>
+        <v>219</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>36</v>
@@ -1604,12 +1601,12 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="8">
-        <v>3604.17</v>
+        <v>3601.74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
-        <v>964</v>
+        <v>210</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>36</v>
@@ -1621,19 +1618,19 @@
         <v>37</v>
       </c>
       <c r="E11" s="9">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="8">
-        <v>4204.17</v>
+        <v>4201.74</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
-        <v>963</v>
+        <v>209</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>36</v>
@@ -1645,7 +1642,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="9">
-        <v>47.51</v>
+        <v>45.08</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -1657,7 +1654,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
-        <v>962</v>
+        <v>208</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>36</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
-        <v>951</v>
+        <v>197</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>36</v>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
-        <v>950</v>
+        <v>196</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
@@ -1729,7 +1726,7 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
-        <v>949</v>
+        <v>195</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>36</v>
@@ -1758,15 +1755,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1815,7 +1813,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>47</v>
       </c>
@@ -1827,91 +1825,28 @@
         <v>49</v>
       </c>
       <c r="E3" s="10">
-        <v>41958</v>
+        <v>42095</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>50</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>51</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="10">
-        <v>41988</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="10">
-        <v>42095</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="12"/>
+      <c r="K3" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" location="/loanaccountcharge/23/waivecharge/156" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/23/waivecharge/156"/>
-    <hyperlink ref="K5" r:id="rId2" location="/loanaccountcharge/23/waivecharge/157" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/23/waivecharge/157"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/10/waivecharge/66" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/66"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
